--- a/Electronic/Production/BOM_ZumoComSystem.xlsx
+++ b/Electronic/Production/BOM_ZumoComSystem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ZumoComSystem</t>
   </si>
@@ -89,9 +89,6 @@
     <t>WE 632723300011</t>
   </si>
   <si>
-    <t>TPS62160DGK</t>
-  </si>
-  <si>
     <t>TL3301FF160QG</t>
   </si>
   <si>
@@ -117,6 +114,27 @@
   </si>
   <si>
     <t>BQ24133 (BMS included??) / LTC4061-4.4</t>
+  </si>
+  <si>
+    <t>Spule 3V3</t>
+  </si>
+  <si>
+    <t>Spule 5V</t>
+  </si>
+  <si>
+    <t>5V-Regler</t>
+  </si>
+  <si>
+    <t>TPS62056DGS</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/texas-instruments/TPS62056DGS/296-14212-5-ND/526047</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/analog-devices-inc/LT1374CS8-5-PBF/LT1374CS8-5-PBF-ND/888771</t>
+  </si>
+  <si>
+    <t>LT1374CS8-5#PBF</t>
   </si>
 </sst>
 </file>
@@ -435,25 +453,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H16"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.21875" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -473,7 +491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -487,18 +505,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -506,7 +524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -514,18 +532,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -536,70 +554,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="B17" t="s">
         <v>26</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Electronic/Production/BOM_ZumoComSystem.xlsx
+++ b/Electronic/Production/BOM_ZumoComSystem.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>ZumoComSystem</t>
   </si>
@@ -135,6 +135,30 @@
   </si>
   <si>
     <t>LT1374CS8-5#PBF</t>
+  </si>
+  <si>
+    <t>Power-Off Schalter</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/te-connectivity-alcoswitch-switches/MLL1200S/450-1577-ND/1201378</t>
+  </si>
+  <si>
+    <t>MLL1200S</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/w%C3%BCrth-elektronik/74437368150/732-11456-1-ND/7323682</t>
+  </si>
+  <si>
+    <t>FIXED IND 15UH 4.1A 45 MOHM SMD</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/vishay-dale/IHLP6767GZER220M11/541-1288-1-ND/2139414</t>
+  </si>
+  <si>
+    <t>FIXED IND 22UH 12A 21 MOHM SMD</t>
+  </si>
+  <si>
+    <t>MOSFET P-Kanal</t>
   </si>
 </sst>
 </file>
@@ -453,16 +477,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H19"/>
+  <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
     <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -641,10 +667,47 @@
       <c r="A18" t="s">
         <v>30</v>
       </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Electronic/Production/BOM_ZumoComSystem.xlsx
+++ b/Electronic/Production/BOM_ZumoComSystem.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>ZumoComSystem</t>
   </si>
@@ -74,9 +74,6 @@
     <t>USB-A Buchse</t>
   </si>
   <si>
-    <t>USB-C Buchse</t>
-  </si>
-  <si>
     <t>ESP32 Modul</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t xml:space="preserve">534-1043 </t>
   </si>
   <si>
-    <t>WE 632723300011</t>
-  </si>
-  <si>
     <t>TL3301FF160QG</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>Schutzschaltung Batterie</t>
   </si>
   <si>
-    <t>1965-ESP32-WROOM-32E(4MBHIGHTEMP)CT-ND</t>
-  </si>
-  <si>
     <t>ESP32</t>
   </si>
   <si>
@@ -159,16 +150,36 @@
   </si>
   <si>
     <t>MOSFET P-Kanal</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/central-semiconductor-corp/CXDM4060P-TR-PBFREE/1514-CXDM4060PTRPBFREECT-ND/4807155</t>
+  </si>
+  <si>
+    <t>MOSFET P-CH 40V 6A SOT-89</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/espressif-systems/ESP32-WROOM-32D-16MB/1904-1025-1-ND/9381734</t>
+  </si>
+  <si>
+    <t>Micro-USB Buchse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,14 +202,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -480,7 +494,7 @@
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,21 +536,21 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -563,18 +577,15 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -585,27 +596,27 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>34</v>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -613,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
@@ -632,7 +643,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -643,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -651,66 +662,84 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
-        <v>25</v>
+      <c r="F17" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
-        <v>40</v>
+      <c r="F18" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
-        <v>42</v>
+      <c r="F19" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
-        <v>38</v>
+      <c r="F20" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F18" r:id="rId1"/>
+    <hyperlink ref="F19" r:id="rId2"/>
+    <hyperlink ref="F11" r:id="rId3"/>
+    <hyperlink ref="F12" r:id="rId4"/>
+    <hyperlink ref="F20" r:id="rId5"/>
+    <hyperlink ref="F21" r:id="rId6"/>
+    <hyperlink ref="F17" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Electronic/Production/BOM_ZumoComSystem.xlsx
+++ b/Electronic/Production/BOM_ZumoComSystem.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="121">
   <si>
     <t>ZumoComSystem</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Sicherung</t>
   </si>
   <si>
-    <t>TVS Diode</t>
-  </si>
-  <si>
     <t>Charger</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>Taster</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
     <t>USB-Master</t>
   </si>
   <si>
@@ -77,21 +71,9 @@
     <t>ESP32 Modul</t>
   </si>
   <si>
-    <t>Keystone THM Battery Holder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">534-1043 </t>
-  </si>
-  <si>
-    <t>TL3301FF160QG</t>
-  </si>
-  <si>
     <t>MAX3421E</t>
   </si>
   <si>
-    <t>WR-COM 61400416021</t>
-  </si>
-  <si>
     <t>Schutzschaltung Batterie</t>
   </si>
   <si>
@@ -140,35 +122,278 @@
     <t>https://www.digikey.de/product-detail/de/w%C3%BCrth-elektronik/74437368150/732-11456-1-ND/7323682</t>
   </si>
   <si>
-    <t>FIXED IND 15UH 4.1A 45 MOHM SMD</t>
-  </si>
-  <si>
     <t>https://www.digikey.de/product-detail/de/vishay-dale/IHLP6767GZER220M11/541-1288-1-ND/2139414</t>
   </si>
   <si>
-    <t>FIXED IND 22UH 12A 21 MOHM SMD</t>
-  </si>
-  <si>
     <t>MOSFET P-Kanal</t>
   </si>
   <si>
     <t>https://www.digikey.de/product-detail/de/central-semiconductor-corp/CXDM4060P-TR-PBFREE/1514-CXDM4060PTRPBFREECT-ND/4807155</t>
   </si>
   <si>
-    <t>MOSFET P-CH 40V 6A SOT-89</t>
-  </si>
-  <si>
     <t>https://www.digikey.de/product-detail/de/espressif-systems/ESP32-WROOM-32D-16MB/1904-1025-1-ND/9381734</t>
   </si>
   <si>
     <t>Micro-USB Buchse</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/molex/1051330001/WM9734CT-ND/4037910</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/w%C3%BCrth-elektronik/614004135023/732-2732-ND/2508501</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/bourns-inc/MF-USML450-12-2/MF-USML450-12-2CT-ND/10057166</t>
+  </si>
+  <si>
+    <t>Bourns Inc.</t>
+  </si>
+  <si>
+    <t>Hersteller</t>
+  </si>
+  <si>
+    <t>Keystone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molex </t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/keystone-electronics/1043/36-1043-ND/2745669</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>Analog Devices Inc.</t>
+  </si>
+  <si>
+    <t>E-Switch</t>
+  </si>
+  <si>
+    <t>Würth Elektronik</t>
+  </si>
+  <si>
+    <t>Espressif Systems</t>
+  </si>
+  <si>
+    <t>Vishay Dale</t>
+  </si>
+  <si>
+    <t>Central Semiconductor Corp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE Connectivity </t>
+  </si>
+  <si>
+    <t>Central Semiconductor</t>
+  </si>
+  <si>
+    <t>Akku 18650</t>
+  </si>
+  <si>
+    <t>Spalte1</t>
+  </si>
+  <si>
+    <t>Spalte2</t>
+  </si>
+  <si>
+    <t>Kürzel</t>
+  </si>
+  <si>
+    <t>Andere</t>
+  </si>
+  <si>
+    <t>https://www.akkuteile.de/lg-inr18650-m36-3-6v-3-7v-3600mah-lithium-ionen-akku_100642_2588</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>INR18650-M36</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/bourns-inc/P6SMB10A/P6SMB10ABBCT-ND/5313723</t>
+  </si>
+  <si>
+    <t>P6SMB10A</t>
+  </si>
+  <si>
+    <t>MF-USML450/12-2</t>
+  </si>
+  <si>
+    <t>1043</t>
+  </si>
+  <si>
+    <t>CXDM4060P TR PBFREE</t>
+  </si>
+  <si>
+    <t>IHLP6767GZER220M11</t>
+  </si>
+  <si>
+    <t>74437368150</t>
+  </si>
+  <si>
+    <t>Kondensator</t>
+  </si>
+  <si>
+    <t>C2012X5R1V106M085AC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/tdk-corporation/C2012X5R1V106M085AC/445-14419-1-ND/3956085</t>
+  </si>
+  <si>
+    <t>Wert</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/tdk-corporation/C3216X5R1V226M160AC/445-8045-1-ND/2792165</t>
+  </si>
+  <si>
+    <t>C3216X5R1V226M160AC</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>270nF</t>
+  </si>
+  <si>
+    <t>1,5nF</t>
+  </si>
+  <si>
+    <t>C3216X5R1A107M160AC</t>
+  </si>
+  <si>
+    <t>TDK Corporation</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/tdk-corporation/C3216X5R1A107M160AC/445-6007-1-ND/2444048</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/kemet/C0805R274K5RACT500/399-13289-1-ND/5879259</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>C0805R274K5RACT500</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/w%C3%BCrth-elektronik/885012206084/732-8002-1-ND/5454629</t>
+  </si>
+  <si>
+    <t>885012206084</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2,C3</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>TVS-Diode</t>
+  </si>
+  <si>
+    <t>AVX Corporation</t>
+  </si>
+  <si>
+    <t>SD2114S040S5R0</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/avx-corporation/SD2114S040S5R0/478-7816-1-ND/3749520</t>
+  </si>
+  <si>
+    <t>40V 5A</t>
+  </si>
+  <si>
+    <t>30V 100mA</t>
+  </si>
+  <si>
+    <t>CMDSH-3 TR PBFREE</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/central-semiconductor-corp/CMDSH-3-TR-PBFREE/1514-CMDSH-3TRPBFREECT-ND/4806980</t>
+  </si>
+  <si>
+    <t>1050570001</t>
+  </si>
+  <si>
+    <t>RGB-LED</t>
+  </si>
+  <si>
+    <t>150121M153000</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/w%C3%BCrth-elektronik/150121M153000/732-11394-1-ND/7315967</t>
+  </si>
+  <si>
+    <t>RST-Taster</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/omron-electronics-inc-emc-div/B3U-1100P-B/SW1104CT-ND/2237552</t>
+  </si>
+  <si>
+    <t>Omron Electronics Inc-EMC Div</t>
+  </si>
+  <si>
+    <t>B3U-1100P-B</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/e-switch/TL3342F160QG-TR/EG2531CT-ND/379004</t>
+  </si>
+  <si>
+    <t>TL3342F160QG/TR</t>
+  </si>
+  <si>
+    <t>LED-Grün</t>
+  </si>
+  <si>
+    <t>LED-Rot</t>
+  </si>
+  <si>
+    <t>LED-Gelb</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/w%C3%BCrth-elektronik/150060VS55040/732-12017-1-ND/8557227</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/w%C3%BCrth-elektronik/150060YS55040/732-12018-1-ND/8557228</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/w%C3%BCrth-elektronik/150060SS55040/732-12016-1-ND/8557226</t>
+  </si>
+  <si>
+    <t>LED GREEN DIFFUSED 0603 SMD</t>
+  </si>
+  <si>
+    <t>LED RED DIFFUSED 0603 SMD</t>
+  </si>
+  <si>
+    <t>LED YELLOW DIFFUSED 0603 SMD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +409,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,12 +427,304 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="23">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -206,16 +732,324 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -226,6 +1060,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A4:L36" totalsRowShown="0" tableBorderDxfId="12">
+  <autoFilter ref="A4:L36"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Bezeichnung" dataDxfId="11"/>
+    <tableColumn id="10" name="Kürzel" dataDxfId="10"/>
+    <tableColumn id="14" name="Wert" dataDxfId="9"/>
+    <tableColumn id="2" name="Hersteller" dataDxfId="8"/>
+    <tableColumn id="3" name="Artikelname" dataDxfId="7"/>
+    <tableColumn id="4" name="Anzahl" dataDxfId="6"/>
+    <tableColumn id="5" name="Spalte1" dataDxfId="5"/>
+    <tableColumn id="6" name="Spalte2" dataDxfId="4"/>
+    <tableColumn id="7" name="DigiKey" dataDxfId="3" dataCellStyle="Link"/>
+    <tableColumn id="8" name="Farnell" dataDxfId="2"/>
+    <tableColumn id="9" name="Mouser" dataDxfId="1"/>
+    <tableColumn id="12" name="Andere" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,255 +1346,848 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H21"/>
+  <dimension ref="A2:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="L4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="22">
+        <v>2</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="27">
+        <v>1</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="32"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1051330001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="37">
+        <v>1</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="25"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="39">
+        <v>1</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="29"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="8">
+        <v>3</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="8">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="8">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="12"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="F36" s="16">
+        <v>1</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F18" r:id="rId1"/>
-    <hyperlink ref="F19" r:id="rId2"/>
-    <hyperlink ref="F11" r:id="rId3"/>
-    <hyperlink ref="F12" r:id="rId4"/>
-    <hyperlink ref="F20" r:id="rId5"/>
-    <hyperlink ref="F21" r:id="rId6"/>
-    <hyperlink ref="F17" r:id="rId7"/>
+    <hyperlink ref="I16" r:id="rId1"/>
+    <hyperlink ref="I17" r:id="rId2"/>
+    <hyperlink ref="I14" r:id="rId3"/>
+    <hyperlink ref="I15" r:id="rId4"/>
+    <hyperlink ref="I18" r:id="rId5"/>
+    <hyperlink ref="I19" r:id="rId6"/>
+    <hyperlink ref="I36" r:id="rId7"/>
+    <hyperlink ref="I11" r:id="rId8"/>
+    <hyperlink ref="I35" r:id="rId9"/>
+    <hyperlink ref="I7" r:id="rId10"/>
+    <hyperlink ref="I6" r:id="rId11"/>
+    <hyperlink ref="I8" r:id="rId12"/>
+    <hyperlink ref="L5" r:id="rId13"/>
+    <hyperlink ref="I20" r:id="rId14"/>
+    <hyperlink ref="I21" r:id="rId15"/>
+    <hyperlink ref="I22" r:id="rId16"/>
+    <hyperlink ref="I25" r:id="rId17"/>
+    <hyperlink ref="I30" r:id="rId18"/>
+    <hyperlink ref="I31" r:id="rId19"/>
+    <hyperlink ref="I33" r:id="rId20"/>
+    <hyperlink ref="I29" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <tableParts count="1">
+    <tablePart r:id="rId23"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Electronic/Production/BOM_ZumoComSystem.xlsx
+++ b/Electronic/Production/BOM_ZumoComSystem.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="125">
   <si>
     <t>ZumoComSystem</t>
   </si>
@@ -387,6 +387,18 @@
   </si>
   <si>
     <t>LED YELLOW DIFFUSED 0603 SMD</t>
+  </si>
+  <si>
+    <t>MOSFET n-Kanal</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/product-detail/de/toshiba-semiconductor-and-storage/SSM3K72CFS-LF/SSM3K72CFSLFCT-ND/5977741</t>
+  </si>
+  <si>
+    <t>Toshiba Semiconductor and Storage</t>
+  </si>
+  <si>
+    <t>SSM3K72CFS,LF</t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1075,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A4:L36" totalsRowShown="0" tableBorderDxfId="12">
-  <autoFilter ref="A4:L36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A4:L37" totalsRowShown="0" tableBorderDxfId="12">
+  <autoFilter ref="A4:L37"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Bezeichnung" dataDxfId="11"/>
     <tableColumn id="10" name="Kürzel" dataDxfId="10"/>
@@ -1346,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L36"/>
+  <dimension ref="A2:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,23 +1962,21 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="8">
-        <v>3</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="F28" s="8"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1974,23 +1984,23 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F29" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -1998,15 +2008,15 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F30" s="8">
         <v>1</v>
@@ -2014,7 +2024,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -2022,7 +2032,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2030,7 +2040,7 @@
         <v>48</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F31" s="8">
         <v>1</v>
@@ -2038,7 +2048,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -2046,7 +2056,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2054,7 +2064,7 @@
         <v>48</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F32" s="8">
         <v>1</v>
@@ -2062,7 +2072,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -2070,7 +2080,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2078,7 +2088,7 @@
         <v>48</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F33" s="8">
         <v>1</v>
@@ -2086,7 +2096,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -2094,71 +2104,95 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="E34" s="6" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="F34" s="8">
         <v>1</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="I34" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="12"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="D35" s="5"/>
       <c r="E35" s="6" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="F35" s="8">
         <v>1</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="12"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="8">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E37" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="16">
-        <v>1</v>
-      </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="17" t="s">
+      <c r="F37" s="16">
+        <v>1</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="1"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2168,9 +2202,9 @@
     <hyperlink ref="I15" r:id="rId4"/>
     <hyperlink ref="I18" r:id="rId5"/>
     <hyperlink ref="I19" r:id="rId6"/>
-    <hyperlink ref="I36" r:id="rId7"/>
+    <hyperlink ref="I37" r:id="rId7"/>
     <hyperlink ref="I11" r:id="rId8"/>
-    <hyperlink ref="I35" r:id="rId9"/>
+    <hyperlink ref="I36" r:id="rId9"/>
     <hyperlink ref="I7" r:id="rId10"/>
     <hyperlink ref="I6" r:id="rId11"/>
     <hyperlink ref="I8" r:id="rId12"/>
@@ -2179,10 +2213,10 @@
     <hyperlink ref="I21" r:id="rId15"/>
     <hyperlink ref="I22" r:id="rId16"/>
     <hyperlink ref="I25" r:id="rId17"/>
-    <hyperlink ref="I30" r:id="rId18"/>
-    <hyperlink ref="I31" r:id="rId19"/>
-    <hyperlink ref="I33" r:id="rId20"/>
-    <hyperlink ref="I29" r:id="rId21"/>
+    <hyperlink ref="I31" r:id="rId18"/>
+    <hyperlink ref="I32" r:id="rId19"/>
+    <hyperlink ref="I34" r:id="rId20"/>
+    <hyperlink ref="I30" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>

--- a/Electronic/Production/BOM_ZumoComSystem.xlsx
+++ b/Electronic/Production/BOM_ZumoComSystem.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="139">
   <si>
     <t>ZumoComSystem</t>
   </si>
@@ -80,15 +80,6 @@
     <t>ESP32</t>
   </si>
   <si>
-    <t>1 bis 2</t>
-  </si>
-  <si>
-    <t>DW01A/</t>
-  </si>
-  <si>
-    <t>BQ24133 (BMS included??) / LTC4061-4.4</t>
-  </si>
-  <si>
     <t>Spule 3V3</t>
   </si>
   <si>
@@ -399,6 +390,57 @@
   </si>
   <si>
     <t>SSM3K72CFS,LF</t>
+  </si>
+  <si>
+    <t>Aufwärtswandler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BQ24133 (BMS included??) / BQ29209 / LTC4061-4.4  </t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/de/products/detail/texas-instruments/BQ29209DRBT/2596777</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/de/products/detail/microchip-technology/MCP73844T-840I-MS/593753</t>
+  </si>
+  <si>
+    <t>https://www.digikey.de/de/products/detail/nisshinbo-micro-devices-inc/R1218N021A-TR-FE/10244894</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>Nisshinbo Micro Devices Inc.</t>
+  </si>
+  <si>
+    <t>R1218N021A-TR-FE</t>
+  </si>
+  <si>
+    <t>Batterie</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Schutz- &amp;</t>
+  </si>
+  <si>
+    <t>Power-</t>
+  </si>
+  <si>
+    <t>Supply</t>
+  </si>
+  <si>
+    <t>USB &amp;</t>
+  </si>
+  <si>
+    <t>Perepherie</t>
+  </si>
+  <si>
+    <t>DW01A/ BQ29209DRBT / R5460N222AA</t>
   </si>
 </sst>
 </file>
@@ -439,7 +481,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -739,12 +781,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -785,6 +838,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1075,8 +1129,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A4:L37" totalsRowShown="0" tableBorderDxfId="12">
-  <autoFilter ref="A4:L37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="B4:M38" totalsRowShown="0" tableBorderDxfId="12">
+  <autoFilter ref="B4:M38"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Bezeichnung" dataDxfId="11"/>
     <tableColumn id="10" name="Kürzel" dataDxfId="10"/>
@@ -1358,870 +1412,933 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L37"/>
+  <dimension ref="A2:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F5" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="22">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="22">
-        <v>2</v>
-      </c>
-      <c r="G5" s="22"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="22"/>
+      <c r="M5" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="27">
+        <v>1</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="33" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="32"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="19">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="27">
-        <v>1</v>
-      </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="32"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="F12" s="6">
         <v>1051330001</v>
       </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="J12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="37">
+        <v>1</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="23"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="25"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="37">
-        <v>1</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="38" t="s">
+      <c r="F17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="25"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="25"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="7" t="s">
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="25"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="8">
+        <v>2</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="25"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="25"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="25"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="25"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="40"/>
+      <c r="B27" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="25"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="8">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="25"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="25"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="25"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="25"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="8">
-        <v>2</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="25"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="8">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="25"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="8">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="25"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="25"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="2" t="s">
+      <c r="F27" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="39">
+        <v>1</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="8">
-        <v>1</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="25"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="28" t="s">
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="29"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="8">
+        <v>3</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="8">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="39">
-        <v>1</v>
-      </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="33" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="29"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="12"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="G32" s="8">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="8">
-        <v>3</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="12"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="8">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="8">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="12"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="8">
-        <v>1</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="12"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="8">
-        <v>1</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="12"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="8">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="12"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="8">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="12"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="8">
-        <v>1</v>
-      </c>
-      <c r="G35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1</v>
+      </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="J35" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="12"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F36" s="8">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="8">
+        <v>1</v>
+      </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="12"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="L36" s="5"/>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="15" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="16">
-        <v>1</v>
-      </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="1"/>
+      <c r="G38" s="16">
+        <v>1</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I16" r:id="rId1"/>
-    <hyperlink ref="I17" r:id="rId2"/>
-    <hyperlink ref="I14" r:id="rId3"/>
-    <hyperlink ref="I15" r:id="rId4"/>
-    <hyperlink ref="I18" r:id="rId5"/>
-    <hyperlink ref="I19" r:id="rId6"/>
-    <hyperlink ref="I37" r:id="rId7"/>
-    <hyperlink ref="I11" r:id="rId8"/>
-    <hyperlink ref="I36" r:id="rId9"/>
-    <hyperlink ref="I7" r:id="rId10"/>
-    <hyperlink ref="I6" r:id="rId11"/>
-    <hyperlink ref="I8" r:id="rId12"/>
-    <hyperlink ref="L5" r:id="rId13"/>
-    <hyperlink ref="I20" r:id="rId14"/>
-    <hyperlink ref="I21" r:id="rId15"/>
-    <hyperlink ref="I22" r:id="rId16"/>
-    <hyperlink ref="I25" r:id="rId17"/>
-    <hyperlink ref="I31" r:id="rId18"/>
-    <hyperlink ref="I32" r:id="rId19"/>
-    <hyperlink ref="I34" r:id="rId20"/>
-    <hyperlink ref="I30" r:id="rId21"/>
+    <hyperlink ref="J17" r:id="rId1"/>
+    <hyperlink ref="J18" r:id="rId2"/>
+    <hyperlink ref="J15" r:id="rId3"/>
+    <hyperlink ref="J16" r:id="rId4"/>
+    <hyperlink ref="J19" r:id="rId5"/>
+    <hyperlink ref="J20" r:id="rId6"/>
+    <hyperlink ref="J38" r:id="rId7"/>
+    <hyperlink ref="J12" r:id="rId8"/>
+    <hyperlink ref="J37" r:id="rId9"/>
+    <hyperlink ref="J7" r:id="rId10"/>
+    <hyperlink ref="J6" r:id="rId11"/>
+    <hyperlink ref="J8" r:id="rId12"/>
+    <hyperlink ref="M5" r:id="rId13"/>
+    <hyperlink ref="J21" r:id="rId14"/>
+    <hyperlink ref="J22" r:id="rId15"/>
+    <hyperlink ref="J23" r:id="rId16"/>
+    <hyperlink ref="J26" r:id="rId17"/>
+    <hyperlink ref="J32" r:id="rId18"/>
+    <hyperlink ref="J33" r:id="rId19"/>
+    <hyperlink ref="J35" r:id="rId20"/>
+    <hyperlink ref="J31" r:id="rId21"/>
+    <hyperlink ref="J13" r:id="rId22"/>
+    <hyperlink ref="J11" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
   <tableParts count="1">
-    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Electronic/Production/BOM_ZumoComSystem.xlsx
+++ b/Electronic/Production/BOM_ZumoComSystem.xlsx
@@ -1415,7 +1415,7 @@
   <dimension ref="A2:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Electronic/Production/BOM_ZumoComSystem.xlsx
+++ b/Electronic/Production/BOM_ZumoComSystem.xlsx
@@ -29,18 +29,12 @@
     <t>ZumoComSystem</t>
   </si>
   <si>
-    <t>TPS62056DGS</t>
-  </si>
-  <si>
     <t>MLL1200S</t>
   </si>
   <si>
     <t>Bourns Inc.</t>
   </si>
   <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
     <t>E-Switch</t>
   </si>
   <si>
@@ -53,9 +47,6 @@
     <t>IHLP6767GZER220M11</t>
   </si>
   <si>
-    <t>74437368150</t>
-  </si>
-  <si>
     <t>C2012X5R1V106M085AC</t>
   </si>
   <si>
@@ -329,9 +320,6 @@
     <t xml:space="preserve">    L1</t>
   </si>
   <si>
-    <t>15uH</t>
-  </si>
-  <si>
     <t xml:space="preserve">    L2</t>
   </si>
   <si>
@@ -630,6 +618,18 @@
   </si>
   <si>
     <t xml:space="preserve">    BT1*,BT2*</t>
+  </si>
+  <si>
+    <t>ADP2371ACPZ-3.3-R7</t>
+  </si>
+  <si>
+    <t>Coilcraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAL4030-682MEC </t>
+  </si>
+  <si>
+    <t>6.8uH</t>
   </si>
 </sst>
 </file>
@@ -747,12 +747,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A4:E66" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A4:E66" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="A4:E66"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Reference" dataDxfId="5"/>
-    <tableColumn id="2" name="Value" dataDxfId="4"/>
-    <tableColumn id="3" name="Manufacturer" dataDxfId="3"/>
+    <tableColumn id="1" name="Reference" dataDxfId="4"/>
+    <tableColumn id="2" name="Value" dataDxfId="3"/>
+    <tableColumn id="3" name="Manufacturer" dataDxfId="2"/>
     <tableColumn id="4" name="Part-No." dataDxfId="1"/>
     <tableColumn id="5" name="Quantity" dataDxfId="0"/>
   </tableColumns>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,30 +1053,30 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D5" s="6">
         <v>100833</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D6" s="4">
         <v>1043</v>
@@ -1116,16 +1116,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7" s="9">
         <v>2</v>
@@ -1139,16 +1139,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8" s="9">
         <v>1</v>
@@ -1162,16 +1162,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E9" s="10">
         <v>1</v>
@@ -1185,16 +1185,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
@@ -1208,16 +1208,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11" s="10">
         <v>1</v>
@@ -1231,16 +1231,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E12" s="10">
         <v>2</v>
@@ -1254,16 +1254,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="E13" s="9">
         <v>4</v>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E14" s="10">
         <v>1</v>
@@ -1300,16 +1300,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
@@ -1323,16 +1323,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -1346,16 +1346,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E17" s="10">
         <v>3</v>
@@ -1369,16 +1369,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E18" s="10">
         <v>1</v>
@@ -1392,16 +1392,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E19" s="10">
         <v>1</v>
@@ -1415,16 +1415,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="E20" s="10">
         <v>1</v>
@@ -1438,16 +1438,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E21" s="10">
         <v>3</v>
@@ -1461,16 +1461,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E22" s="10">
         <v>1</v>
@@ -1484,16 +1484,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="E23" s="10">
         <v>1</v>
@@ -1507,16 +1507,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E24" s="10">
         <v>1</v>
@@ -1530,16 +1530,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="E25" s="10">
         <v>1</v>
@@ -1553,16 +1553,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E26" s="10">
         <v>1</v>
@@ -1576,16 +1576,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E27" s="10">
         <v>1</v>
@@ -1599,16 +1599,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B28" s="4">
         <v>66200221122</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E28" s="10">
         <v>1</v>
@@ -1622,16 +1622,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E29" s="10">
         <v>1</v>
@@ -1645,16 +1645,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E30" s="10">
         <v>1</v>
@@ -1668,16 +1668,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="E31" s="10">
         <v>1</v>
@@ -1691,16 +1691,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E32" s="10">
         <v>1</v>
@@ -1714,16 +1714,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E33" s="10">
         <v>1</v>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E34" s="10">
         <v>1</v>
@@ -1760,16 +1760,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E35" s="8">
         <v>1</v>
@@ -1783,16 +1783,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="E36" s="10">
         <v>1</v>
@@ -1806,16 +1806,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="E37" s="10">
         <v>1</v>
@@ -1829,16 +1829,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E38" s="10">
         <v>1</v>
@@ -1852,16 +1852,16 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E39" s="10">
         <v>2</v>
@@ -1875,16 +1875,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E40" s="10">
         <v>2</v>
@@ -1892,16 +1892,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E41" s="10">
         <v>5</v>
@@ -1909,16 +1909,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E42" s="8">
         <v>14</v>
@@ -1926,16 +1926,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C43" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="E43" s="8">
         <v>1</v>
@@ -1943,16 +1943,16 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B44" s="6">
         <v>0</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E44" s="8">
         <v>4</v>
@@ -1960,16 +1960,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E45" s="8">
         <v>1</v>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E46" s="8">
         <v>2</v>
@@ -1994,16 +1994,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B47" s="6">
         <v>470</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E47" s="8">
         <v>2</v>
@@ -2011,16 +2011,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B48" s="6">
         <v>0</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E48" s="8">
         <v>1</v>
@@ -2028,16 +2028,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E49" s="8">
         <v>1</v>
@@ -2045,16 +2045,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E50" s="8">
         <v>2</v>
@@ -2062,16 +2062,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E51" s="8">
         <v>1</v>
@@ -2079,16 +2079,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E52" s="8">
         <v>1</v>
@@ -2096,16 +2096,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E53" s="8">
         <v>1</v>
@@ -2113,16 +2113,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B54" s="6">
         <v>300</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E54" s="8">
         <v>3</v>
@@ -2130,16 +2130,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B55" s="6">
         <v>180</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E55" s="8">
         <v>1</v>
@@ -2147,16 +2147,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B56" s="6">
         <v>150</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E56" s="8">
         <v>2</v>
@@ -2164,16 +2164,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E57" s="8">
         <v>1</v>
@@ -2181,16 +2181,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E58" s="8">
         <v>1</v>
@@ -2198,16 +2198,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E59" s="8">
         <v>3</v>
@@ -2215,16 +2215,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E60" s="8">
         <v>1</v>
@@ -2232,16 +2232,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="E61" s="8">
         <v>1</v>
@@ -2249,16 +2249,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E62" s="8">
         <v>1</v>
@@ -2266,16 +2266,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E63" s="8">
         <v>1</v>
@@ -2283,16 +2283,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E64" s="8">
         <v>1</v>
@@ -2300,16 +2300,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E65" s="8">
         <v>1</v>
@@ -2317,16 +2317,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E66" s="8">
         <v>1</v>
